--- a/DbLayouts/L5-管理性作業/CollList.xlsx
+++ b/DbLayouts/L5-管理性作業/CollList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5D0D74-BD1C-4642-AE6E-9D29F5238158}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBB911C-D14B-411B-B329-68B7A329DF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="1272" windowWidth="20940" windowHeight="10884" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1186,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -1880,9 +1880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6:B7"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1988,7 +1988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCD60E8-AFEF-4281-BB36-9EFEC03E9C53}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2054,5 +2054,6 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DbLayouts/L5-管理性作業/CollList.xlsx
+++ b/DbLayouts/L5-管理性作業/CollList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBB911C-D14B-411B-B329-68B7A329DF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9161647-D6C7-4DF3-9CF1-A9A02BD9615A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1272" windowWidth="20940" windowHeight="10884" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -23,53 +23,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="127">
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
   </si>
   <si>
     <t>Uni</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ForeignKey1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>欄位名稱</t>
@@ -91,46 +91,46 @@
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>FacmNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CaseCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TxCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>PrevIntDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>OvduTerm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CurrencyCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>PrinBalance</t>
   </si>
   <si>
     <t>AccCollPsn</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>LegalPsn</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>戶號</t>
@@ -167,167 +167,167 @@
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1:法催
 2:債協</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DecimalD</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>案件種類</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ClFacmNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ClCustNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>同擔保品戶號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>同擔保品額度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>建檔日期時間</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>建檔人員</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>最後更新日期時間</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>最後更新人員</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CollList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>法催紀錄清單檔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NextIntDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>應繳息日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ClRowNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>同擔保品逾期天數最久者為1,其餘依序排列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>同擔保品序列號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TxDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>findCl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Stored Procedure Name</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Parameter</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Usp_L5_CollList_Upd</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>int tbsdyf,  String empNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>戶況</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>催收員</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>呆帳餘額</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BadDebtBal</t>
   </si>
   <si>
     <t>AcctCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">業務科目代號  </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CdAcCode會計科子細目設定檔
@@ -336,15 +336,15 @@
 330: 長期擔保放款
 340: 三十年房貸
 990: 催收款項</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FacAcctCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>額度業務科目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CdAcCode會計科子細目設定檔
@@ -352,117 +352,117 @@
 320: 中期擔保放款
 330: 長期擔保放款
 340: 三十年房貸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ClCustNo=, AND ClFacmNo=</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CustNo,FacmNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Status</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CustNo,FacmNo,Status</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>statusRng</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>展期記號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">空白、1.展期一般 2.展期協議
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>會計日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DECIMALD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>(日終批次)維護 CollList 法催紀錄清單檔</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CustNo &gt;= ,AND CustNo &lt;= ,AND FacmNo &gt;= ,AND FacmNo &lt;= ,AND Status ^i</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>OvduDays</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">OvduDays &gt;= ,AND OvduDays &lt;= </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ovduDaysRange</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ClNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>擔保品號碼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ClCode1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ClCode2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>擔保品代號1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>擔保品代號2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>此額度在額度與擔保品關聯檔的主要擔保品號碼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>IsSpecify</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>是否指定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RenewCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>空白 Y:是,N:否
 若催收或法務人員非CdCity裡設定的人，則此欄位為Y，否則預設N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>00: 正常戶  
@@ -474,7 +474,7 @@
 07: 部分轉呆戶
 08: 債權轉讓戶
 09: 呆帳結案戶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0:正常</t>
@@ -496,34 +496,52 @@
   </si>
   <si>
     <t>債權戶況</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>03: 結案戶</t>
   </si>
   <si>
     <t>03: 結案戶</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>不轉</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>00: 正常戶  or  04:逾期戶</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityCode</t>
+  </si>
+  <si>
+    <t>地區別與鄉鎮區對照檔CdArea</t>
+  </si>
+  <si>
+    <t>擔保品地區別</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -709,146 +727,160 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 2 2" xfId="4" xr:uid="{55359E77-CE59-4619-A7FB-6BE1411A1E01}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{212E9811-BBAA-48CF-8E5B-308C3A7CAFF8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1184,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1202,10 +1234,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="3" t="s">
         <v>59</v>
       </c>
@@ -1217,8 +1249,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1230,10 +1262,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="12" t="s">
         <v>86</v>
       </c>
@@ -1245,10 +1277,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1256,10 +1288,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="12" t="s">
         <v>88</v>
       </c>
@@ -1269,10 +1301,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1280,10 +1312,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1800,63 +1832,84 @@
       <c r="A35" s="31">
         <v>27</v>
       </c>
-      <c r="B35" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>50</v>
+      <c r="B35" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>126</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="28"/>
+        <v>39</v>
+      </c>
+      <c r="E35" s="37">
+        <v>2</v>
+      </c>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="31">
         <v>28</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="28">
-        <v>6</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="31">
         <v>29</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="E37" s="28">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="31">
         <v>30</v>
       </c>
       <c r="B38" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="28"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="31">
+        <v>31</v>
+      </c>
+      <c r="B39" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C39" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D39" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E39" s="28">
         <v>6</v>
       </c>
     </row>
@@ -1870,7 +1923,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1880,7 +1933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
@@ -1932,7 +1985,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -1978,7 +2031,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -2052,7 +2105,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
